--- a/data/trans_dic/P2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en su vivienda habitual</t>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>95,08%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>95,14%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>94,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>94,9%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>93,21%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>93,35%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>94,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>93,04%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>95,11%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>95,19%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>95,03%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>94,31%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>92,85%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>93,74%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>92,6%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>93,04%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>94,01%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>95,1%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>95,17%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>94,78%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91,67; 95,4</t>
+          <t>91,68; 95,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,33; 94,84</t>
+          <t>86,61; 95,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,91; 96,02</t>
+          <t>89,61; 96,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,8; 95,46</t>
+          <t>87,44; 95,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,63; 96,73</t>
+          <t>92,41; 96,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,08; 96,25</t>
+          <t>92,91; 96,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,76; 95,23</t>
+          <t>92,41; 96,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,13; 95,32</t>
+          <t>93,25; 96,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,53; 94,58</t>
+          <t>91,61; 95,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,34; 96,64</t>
+          <t>91,42; 95,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,98; 95,42</t>
+          <t>88,59; 94,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,5; 94,45</t>
+          <t>92,32; 96,84</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,84; 95,26</t>
+          <t>93,27; 96,62</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,11; 94,47</t>
+          <t>93,2; 96,36</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>93,87; 96,21</t>
+          <t>93,02; 95,48</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>90,28; 94,5</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>91,71; 95,43</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>90,15; 94,88</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>93,39; 96,44</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>93,79; 96,18</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>93,41; 95,9</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>95,97%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>93,88%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>94,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>95,43%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>94,95%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>93,87%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>94,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>93,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>93,1%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>95,96%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>94,84%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>96,14%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>95,15%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>94,72%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>93,81%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>95,78%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>94,86%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>93,93%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>95,17%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>94,87%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>94,42%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,08; 98,16</t>
+          <t>94,82; 97,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 97,56</t>
+          <t>94,89; 98,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,34; 97,19</t>
+          <t>93,79; 97,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,9; 96,32</t>
+          <t>92,4; 96,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,8; 96,37</t>
+          <t>93,04; 97,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,3; 96,85</t>
+          <t>90,02; 96,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,88; 96,51</t>
+          <t>89,91; 96,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,6; 95,74</t>
+          <t>92,18; 97,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,28; 95,37</t>
+          <t>92,44; 96,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,15; 97,95</t>
+          <t>91,12; 95,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>94,72; 97,34</t>
+          <t>89,78; 95,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>92,25; 96,63</t>
+          <t>91,45; 96,48</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>93,1; 96,08</t>
+          <t>92,07; 98,09</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>91,79; 95,3</t>
+          <t>91,2; 97,45</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>92,3; 96,6</t>
+          <t>94,41; 97,19</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>94,38; 96,93</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>93,25; 96,06</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>91,97; 95,39</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>93,43; 96,7</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>92,49; 96,65</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>91,97; 96,26</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>96,04%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>94,39%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>89,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>89,73%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>89,79%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>85,65%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>95,28%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>93,66%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>92,32%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>91,32%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>89,34%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>93,55%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>91,71%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>89,26%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>95,66%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,89; 96,38</t>
+          <t>87,36; 96,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,09; 98,25</t>
+          <t>91,24; 98,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,58; 96,5</t>
+          <t>88,07; 96,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,99; 96,35</t>
+          <t>87,08; 96,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>90,86; 98,63</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>90,11; 97,13</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,53; 94,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,66; 93,82</t>
+          <t>90,41; 97,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,42; 91,0</t>
+          <t>85,19; 95,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>84,24; 94,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>79,13; 91,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>89,28; 98,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>90,29; 96,02</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>86,76; 95,59</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>87,33; 94,18</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>85,14; 92,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>90,37; 96,0</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>89,86; 96,28</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>88,53; 94,68</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>85,16; 92,71</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>92,28; 97,97</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>93,78%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>95,55%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>94,84%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>94,41%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>93,75%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>94,84%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>95,05%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>93,45%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>93,13%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>91,67%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>93,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>92,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>94,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>95,36%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>94,98%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>94,96%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>93,69%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>93,84%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>92,69%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>94,17%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>94,07%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>92,98%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>95,19%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>95,1%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>94,7%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,58; 95,96</t>
+          <t>93,58; 95,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,76</t>
+          <t>91,84; 95,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,62; 95,94</t>
+          <t>92,0; 95,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,05; 95,06</t>
+          <t>91,05; 95,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,8; 96,27</t>
+          <t>94,15; 96,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,7; 96,03</t>
+          <t>92,86; 96,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 94,85</t>
+          <t>92,7; 95,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,09; 94,62</t>
+          <t>93,59; 95,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,27; 93,51</t>
+          <t>92,38; 94,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,86; 96,61</t>
+          <t>91,74; 94,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94,02; 95,73</t>
+          <t>90,03; 93,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,0; 94,77</t>
+          <t>93,17; 96,29</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,48; 94,96</t>
+          <t>93,74; 96,62</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,44; 93,89</t>
+          <t>93,43; 96,21</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>93,93; 96,04</t>
+          <t>93,96; 95,66</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>92,81; 95,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>92,73; 95,0</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>91,27; 94,06</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>94,1; 96,17</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>93,88; 96,06</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>93,55; 95,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,99%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>627.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>541.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>651.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>643.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>656.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>756.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>651.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>793.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>811.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>617.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>817.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>844.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1383.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1192.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1444.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1454.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>1111.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>1473.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1474.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1536184</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1527284</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1549064</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1533489</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1560687</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>218324</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>215975</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1699747</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1693857</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1716345</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1690380</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1718018</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>226437</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>224758</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3235931</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3221141</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3265410</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3223869</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>3278705</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>444761</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>440733</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1503623; 1562947</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1431332; 1570160</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1476383; 1584926</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1438620; 1572883</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1516745; 1588413</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>213198; 222093</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>211143; 219455</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1670124; 1724405</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1657464; 1724524</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1669251; 1748251</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1609598; 1723320</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1667643; 1749244</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>221867; 229840</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>220439; 227911</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3191633; 3276023</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3125531; 3271512</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3185667; 3314845</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3121180; 3284746</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>3219771; 3324813</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>438319; 449495</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>434345; 445962</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>603.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>603.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1135.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>931.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1106.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1092.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>893.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1343187</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1331077</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1320698</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1306995</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1323115</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67869</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68901</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1345319</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1317666</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1291214</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1286686</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1316269</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>62914</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>63464</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2688507</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2648742</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2611911</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2593681</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2639384</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>130783</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>132366</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1314816; 1358434</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1303868; 1349130</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1293453; 1343684</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1274404; 1334132</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1282788; 1347556</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65078; 69829</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>65880; 70829</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1299525; 1367683</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1286254; 1338319</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1252266; 1316309</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1240906; 1316310</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1275254; 1345363</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>60365; 64310</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>61032; 65211</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2640179; 2717865</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2610181; 2680710</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2567439; 2644935</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2539514; 2633916</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>2590901; 2681760</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>127501; 133240</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>128938; 134945</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>392971</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>405447</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>395630</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>392251</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>406055</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>388793</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>375434</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>367753</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>352781</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>392449</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>781764</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>780881</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>763383</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>745032</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>798504</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>369384; 408276</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>385770; 418515</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>372369; 409875</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>368196; 409111</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>384152; 417014</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>372382; 399945</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>350883; 393434</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>345017; 385494</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>325935; 375979</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>367725; 405310</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>754352; 801327</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>750047; 803694</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>736952; 788092</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>710839; 773873</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>770281; 817795</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1279.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1096.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1268.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>994.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>876.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>866.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1525.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1267.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1552.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1561.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1224.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1044.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1059.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2804.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2363.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2844.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2829.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2218.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1920.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>1925.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3272342</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3263807</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3265392</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3232735</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3289857</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>286193</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>284876</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3433859</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3386957</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3375312</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3329846</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3426737</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>289351</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>288222</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6706201</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6650764</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>6640704</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6562581</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>6716594</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>575544</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>573099</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3228125; 3309749</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3167852; 3309056</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3173619; 3309837</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3138783; 3286706</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3241431; 3334463</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>280224; 290237</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>279735; 289038</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3381224; 3467091</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3337371; 3431047</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3311669; 3419107</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3250804; 3381829</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3365949; 3478816</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>284434; 293180</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>283516; 291952</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6635832; 6755839</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>6554181; 6720959</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6546036; 6706062</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6441762; 6638672</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>6639321; 6785399</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>568187; 581359</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>566157; 578918</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
